--- a/automated_results/logFC-datasets-results.xlsx
+++ b/automated_results/logFC-datasets-results.xlsx
@@ -3,19 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="raw_values" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="final_table" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="gene_names" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AGE-RAGE" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TNF" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="IL-17" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="gene_names" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Gene.ID</t>
   </si>
@@ -51,6 +53,54 @@
   </si>
   <si>
     <t>EGR1</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>CCL20</t>
+  </si>
+  <si>
+    <t>FOS</t>
+  </si>
+  <si>
+    <t>JUNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   entrez_id ext_gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1       2353      FOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11      6347     CCL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15      6364    CCL20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20      3726     JUNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21      3725      JUN</t>
+  </si>
+  <si>
+    <t>FOSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrez_id ext_gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15      3576    CXCL8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18      6364    CCL20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23      2354     FOSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36      3725      JUN</t>
   </si>
   <si>
     <t>entrez_id</t>
@@ -74,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +149,18 @@
         <bgColor theme="5" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -112,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -128,14 +190,20 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,11 +733,6 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="L1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="2">
@@ -738,9 +801,6 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="5">
@@ -758,9 +818,6 @@
       <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5">
@@ -778,9 +835,6 @@
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="5">
@@ -798,9 +852,6 @@
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5">
@@ -818,21 +869,16 @@
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
     </row>
     <row r="11" ht="14.25"/>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25"/>
-    <row r="14" ht="14.25">
-      <c r="C14"/>
-    </row>
+    <row r="14" ht="14.25"/>
     <row r="15" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -847,75 +893,81 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B2" s="9">
+        <v>-1.4331119999999999</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1.689538</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B3" s="9">
+        <v>-1.2133080000000001</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2.897097</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2.1161080000000001</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1.188618</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7">
-        <v>-1.4331119999999999</v>
-      </c>
-      <c r="C2" s="7">
-        <v>-1.2133080000000001</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2.1161080000000001</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C5" s="10">
         <v>3.7387109999999999</v>
       </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1.689538</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2.897097</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.188618</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D5" s="10">
         <v>1.6827510000000001</v>
       </c>
     </row>
+    <row r="6" ht="14.25"/>
+    <row r="7" ht="14.25"/>
+    <row r="8" ht="14.25"/>
+    <row r="9" ht="14.25"/>
+    <row r="10" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -927,46 +979,116 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2">
-        <v>6347</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3">
-        <v>3576</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4">
-        <v>3725</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5">
-        <v>1958</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
+      <c r="F1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12">
+        <v>-1.4331119999999999</v>
+      </c>
+      <c r="C2" s="12">
+        <v>-1.5011080000000001</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1.0722149999999999</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>5.8038020000000001</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2.1161080000000001</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2.1656819999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1.689538</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1.132701</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2.886247</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1.188618</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2.8555009999999998</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -975,4 +1097,271 @@
   <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="3" max="4" width="11.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1"/>
+      <c r="O1"/>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>-1.4331119999999999</v>
+      </c>
+      <c r="C2">
+        <v>-1.2133080000000001</v>
+      </c>
+      <c r="D2">
+        <v>-1.5011080000000001</v>
+      </c>
+      <c r="E2">
+        <v>1.0722149999999999</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>5.8038020000000001</v>
+      </c>
+      <c r="F3">
+        <v>4.6340269999999997</v>
+      </c>
+      <c r="G3">
+        <v>2.1161080000000001</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.689538</v>
+      </c>
+      <c r="C4">
+        <v>2.897097</v>
+      </c>
+      <c r="D4">
+        <v>1.132701</v>
+      </c>
+      <c r="E4">
+        <v>2.886247</v>
+      </c>
+      <c r="F4">
+        <v>4.6880550000000003</v>
+      </c>
+      <c r="G4">
+        <v>1.188618</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="F6"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AC8"/>
+      <c r="AE8"/>
+      <c r="AG8"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9"/>
+      <c r="N9"/>
+      <c r="P9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="F14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" ht="14.25"/>
+    <row r="16" ht="14.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>6347</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>3576</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>3725</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>1958</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>